--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_06_beg.xlsx
@@ -396,7 +396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ミュルジス"]彼は、ビーチアンブレラ社の有能なエージェントの一人よ。金さえあれば動く、ハイドブラザーズの今回最大の切り札。
+    <t xml:space="preserve">[name="ミュルジス"]彼は、ビーチブレラ社の有能なエージェントの一人よ。金さえあれば動く、ハイドブラザーズの今回最大の切り札。
 </t>
   </si>
   <si>
